--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.95542400417244</v>
+        <v>89.93164654684188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9164592208649806</v>
+        <v>0.9765229980924806</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.75812299930172</v>
+        <v>88.92377764842297</v>
       </c>
       <c r="D3" t="n">
-        <v>1.024998952577778</v>
+        <v>0.9670634622103167</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.02435319451479</v>
+        <v>87.92167379585692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9652798624270106</v>
+        <v>0.885827416723708</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.91999749094619</v>
+        <v>87.14474646146249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9706048609029415</v>
+        <v>0.9536071586215924</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95717584570119</v>
+        <v>86.0279936273319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9319997304088257</v>
+        <v>1.03238281719546</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89693990817833</v>
+        <v>85.09788706759159</v>
       </c>
       <c r="D7" t="n">
-        <v>1.035076258126748</v>
+        <v>1.092579377279189</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.03151643128902</v>
+        <v>83.91558777671898</v>
       </c>
       <c r="D8" t="n">
-        <v>1.038949527099092</v>
+        <v>1.105771527350532</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.01186217307247</v>
+        <v>83.20103124143024</v>
       </c>
       <c r="D9" t="n">
-        <v>1.057612968668056</v>
+        <v>1.006051271161671</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.07802751891818</v>
+        <v>81.88471180253023</v>
       </c>
       <c r="D10" t="n">
-        <v>1.233668849295069</v>
+        <v>1.023860572517642</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.01478949676884</v>
+        <v>80.91848043361402</v>
       </c>
       <c r="D11" t="n">
-        <v>1.076669306397229</v>
+        <v>1.060881062531417</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.9202608926621</v>
+        <v>80.05355266911613</v>
       </c>
       <c r="D12" t="n">
-        <v>1.026931490752128</v>
+        <v>1.139238921930664</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.97778099677949</v>
+        <v>79.1324872412074</v>
       </c>
       <c r="D13" t="n">
-        <v>1.14514955660197</v>
+        <v>1.133110385304049</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.83022906081769</v>
+        <v>78.015174708858</v>
       </c>
       <c r="D14" t="n">
-        <v>1.194515563040539</v>
+        <v>1.245598579547848</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.10375226443412</v>
+        <v>77.11058348089136</v>
       </c>
       <c r="D15" t="n">
-        <v>1.149092773789936</v>
+        <v>1.171919007344189</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.14557368197912</v>
+        <v>75.91846739253033</v>
       </c>
       <c r="D16" t="n">
-        <v>1.102378650834613</v>
+        <v>1.175161806359246</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.93332929688577</v>
+        <v>74.69811024994951</v>
       </c>
       <c r="D17" t="n">
-        <v>1.235803520774281</v>
+        <v>1.340372074328617</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.00212171491484</v>
+        <v>73.89503978904597</v>
       </c>
       <c r="D18" t="n">
-        <v>1.130119285231536</v>
+        <v>1.1886242388266</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.01938476439246</v>
+        <v>72.88895947032293</v>
       </c>
       <c r="D19" t="n">
-        <v>1.335359089786912</v>
+        <v>1.260056705074559</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.9508825017208</v>
+        <v>71.92958600708377</v>
       </c>
       <c r="D20" t="n">
-        <v>1.441388806169326</v>
+        <v>1.4053183920169</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.89449882143994</v>
+        <v>71.03354839651102</v>
       </c>
       <c r="D21" t="n">
-        <v>1.380815462892534</v>
+        <v>1.184172075515541</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.0909520569615</v>
+        <v>69.97521361396926</v>
       </c>
       <c r="D22" t="n">
-        <v>1.292617040297884</v>
+        <v>1.338930332344142</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.1363439954816</v>
+        <v>68.87601342816761</v>
       </c>
       <c r="D23" t="n">
-        <v>1.384223132988034</v>
+        <v>1.214138178784229</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.04079312936116</v>
+        <v>67.72467218849103</v>
       </c>
       <c r="D24" t="n">
-        <v>1.273331745913796</v>
+        <v>1.365199857084881</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99614328810011</v>
+        <v>67.16428074312533</v>
       </c>
       <c r="D25" t="n">
-        <v>1.19874788751246</v>
+        <v>1.390900022436168</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.96365573169311</v>
+        <v>65.98894117456054</v>
       </c>
       <c r="D26" t="n">
-        <v>1.349441496428038</v>
+        <v>1.439629484030597</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.1305272688506</v>
+        <v>64.93763545637538</v>
       </c>
       <c r="D27" t="n">
-        <v>1.316212383116939</v>
+        <v>1.389198878227137</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.06075601991918</v>
+        <v>63.96003435508636</v>
       </c>
       <c r="D28" t="n">
-        <v>1.312759977974295</v>
+        <v>1.502337255640025</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.95046985887498</v>
+        <v>62.92438689737359</v>
       </c>
       <c r="D29" t="n">
-        <v>1.536506051721889</v>
+        <v>1.342679281214331</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.94980216602372</v>
+        <v>62.00751220584984</v>
       </c>
       <c r="D30" t="n">
-        <v>1.371875617889081</v>
+        <v>1.378899980022398</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.63870867618457</v>
+        <v>60.82988962333039</v>
       </c>
       <c r="D31" t="n">
-        <v>1.519244707629512</v>
+        <v>1.63008042800174</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.99131353142771</v>
+        <v>59.96106721914463</v>
       </c>
       <c r="D32" t="n">
-        <v>1.385548830127758</v>
+        <v>1.571003268223804</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.12000499594399</v>
+        <v>58.87625080429272</v>
       </c>
       <c r="D33" t="n">
-        <v>1.744579289695163</v>
+        <v>1.64536752711227</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.89805172955689</v>
+        <v>57.81954658939758</v>
       </c>
       <c r="D34" t="n">
-        <v>1.608450604258666</v>
+        <v>1.502392639639692</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.93216261970553</v>
+        <v>57.05897349715605</v>
       </c>
       <c r="D35" t="n">
-        <v>1.714904801999585</v>
+        <v>1.538875048340852</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.81908626064812</v>
+        <v>56.07693691505834</v>
       </c>
       <c r="D36" t="n">
-        <v>1.689142667617502</v>
+        <v>1.676161970965159</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.69335065891323</v>
+        <v>55.27621350806639</v>
       </c>
       <c r="D37" t="n">
-        <v>1.489094635753914</v>
+        <v>1.406733579291386</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.1984113470107</v>
+        <v>53.90473834346481</v>
       </c>
       <c r="D38" t="n">
-        <v>1.530244904585961</v>
+        <v>1.980969751427218</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.02541149273986</v>
+        <v>52.81010766955739</v>
       </c>
       <c r="D39" t="n">
-        <v>1.406598936433956</v>
+        <v>1.765114220023676</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.7981604636522</v>
+        <v>52.18191834615971</v>
       </c>
       <c r="D40" t="n">
-        <v>1.647236190759567</v>
+        <v>1.628101849483748</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.89467867805504</v>
+        <v>50.65386204190641</v>
       </c>
       <c r="D41" t="n">
-        <v>1.77720080602497</v>
+        <v>1.659038025558883</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.14870104106006</v>
+        <v>49.89575201435517</v>
       </c>
       <c r="D42" t="n">
-        <v>1.79891508009474</v>
+        <v>1.542541185977762</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.7731673122199</v>
+        <v>48.99916121526997</v>
       </c>
       <c r="D43" t="n">
-        <v>1.812081320114788</v>
+        <v>1.672615422298222</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.78818090219187</v>
+        <v>47.76398133583611</v>
       </c>
       <c r="D44" t="n">
-        <v>1.61758612916894</v>
+        <v>1.798026386542003</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.04199164862576</v>
+        <v>47.37431964188276</v>
       </c>
       <c r="D45" t="n">
-        <v>1.770743463057551</v>
+        <v>1.870723244055532</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.07505177501935</v>
+        <v>46.06280241940628</v>
       </c>
       <c r="D46" t="n">
-        <v>1.536271115553825</v>
+        <v>1.862698377870346</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.6662168489524</v>
+        <v>44.82516918007244</v>
       </c>
       <c r="D47" t="n">
-        <v>1.94393509522368</v>
+        <v>1.876995209535635</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.12507279080533</v>
+        <v>44.09150658972261</v>
       </c>
       <c r="D48" t="n">
-        <v>1.786292718665442</v>
+        <v>1.690655922517238</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.85717694707319</v>
+        <v>42.99155221588953</v>
       </c>
       <c r="D49" t="n">
-        <v>1.866553090011239</v>
+        <v>1.865842137884937</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.95187655615305</v>
+        <v>42.34823014939401</v>
       </c>
       <c r="D50" t="n">
-        <v>1.804105146494972</v>
+        <v>1.637507688323843</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.00129815212848</v>
+        <v>40.81534172553864</v>
       </c>
       <c r="D51" t="n">
-        <v>1.971973208967544</v>
+        <v>1.754183997955237</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.95511516826334</v>
+        <v>39.84264241395383</v>
       </c>
       <c r="D52" t="n">
-        <v>1.899799894762159</v>
+        <v>1.782224535380797</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.82558638979469</v>
+        <v>38.86447721782574</v>
       </c>
       <c r="D53" t="n">
-        <v>2.047450526804877</v>
+        <v>1.922630427689001</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.08243719638894</v>
+        <v>37.51293929377525</v>
       </c>
       <c r="D54" t="n">
-        <v>1.825241288312081</v>
+        <v>2.194592660484322</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.07768749167653</v>
+        <v>37.05895928470015</v>
       </c>
       <c r="D55" t="n">
-        <v>1.982188819051166</v>
+        <v>1.723985344281191</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.83796343275398</v>
+        <v>36.02743129419726</v>
       </c>
       <c r="D56" t="n">
-        <v>2.023586583419326</v>
+        <v>1.818770729930036</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.50103020956062</v>
+        <v>35.17665178674672</v>
       </c>
       <c r="D57" t="n">
-        <v>1.830524912315844</v>
+        <v>2.188306299264688</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.80651037884789</v>
+        <v>34.02956880351772</v>
       </c>
       <c r="D58" t="n">
-        <v>2.192542093416646</v>
+        <v>1.880646952362881</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.79458532757554</v>
+        <v>33.00377450920919</v>
       </c>
       <c r="D59" t="n">
-        <v>1.876125716310506</v>
+        <v>2.114179359490071</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.03420927024268</v>
+        <v>31.96128892285521</v>
       </c>
       <c r="D60" t="n">
-        <v>2.295115176538035</v>
+        <v>2.037306846731787</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.79647055342485</v>
+        <v>30.8169604444829</v>
       </c>
       <c r="D61" t="n">
-        <v>2.148738873037749</v>
+        <v>2.134489925592068</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.81895297134172</v>
+        <v>29.67651937599006</v>
       </c>
       <c r="D62" t="n">
-        <v>2.220586311632624</v>
+        <v>2.193301658729498</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.74591085706979</v>
+        <v>28.85796383414177</v>
       </c>
       <c r="D63" t="n">
-        <v>1.812392088093945</v>
+        <v>2.208899657589113</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.85245456105405</v>
+        <v>28.10895827189228</v>
       </c>
       <c r="D64" t="n">
-        <v>2.327372772437656</v>
+        <v>2.013043706414508</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.23260702748106</v>
+        <v>26.80830710736164</v>
       </c>
       <c r="D65" t="n">
-        <v>1.982349529510761</v>
+        <v>2.153956619478557</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.73255758956793</v>
+        <v>25.78593855895369</v>
       </c>
       <c r="D66" t="n">
-        <v>2.162792513837536</v>
+        <v>2.278390622682831</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.91776222908444</v>
+        <v>25.12262914000971</v>
       </c>
       <c r="D67" t="n">
-        <v>2.179885789815116</v>
+        <v>2.164175997709809</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.74522807610123</v>
+        <v>23.8058095384124</v>
       </c>
       <c r="D68" t="n">
-        <v>2.369615808868635</v>
+        <v>2.240249255647448</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.74127766579346</v>
+        <v>22.85416076481557</v>
       </c>
       <c r="D69" t="n">
-        <v>2.398816538026873</v>
+        <v>2.29859476396037</v>
       </c>
     </row>
   </sheetData>
